--- a/JMP_and_STRUCTURE/AR_Data_Final.xlsx
+++ b/JMP_and_STRUCTURE/AR_Data_Final.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="880" windowWidth="25360" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ar vs. DRL" sheetId="4" r:id="rId2"/>
+    <sheet name="Ar vs. Lat." sheetId="3" r:id="rId3"/>
+    <sheet name="PAr vs. DRL" sheetId="5" r:id="rId4"/>
+    <sheet name="PAr vs. Lat." sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -111,6 +115,964 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ar vs. DRL </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1746.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1670.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1549.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1268.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1293.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1265.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1405.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1278.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1101.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>964.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>891.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2138133400"/>
+        <c:axId val="2139000312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2138133400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2139000312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2139000312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2138133400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Latitude</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26.66417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.41858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.47639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.42444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.17031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.16638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.57083</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.98356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.78659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.69722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2029881080"/>
+        <c:axId val="-2125920280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2029881080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125920280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2125920280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2029881080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PAr vs. DRL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1746.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1670.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1549.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1268.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1293.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1265.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1405.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1278.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1101.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>964.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>891.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2139286488"/>
+        <c:axId val="2139284104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2139286488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2139284104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2139284104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2139286488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PAr vs. Latitude</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26.66417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.41858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.47639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.42444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.17031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.16638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.57083</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.98356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.78659</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.69722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2126330504"/>
+        <c:axId val="-2126021496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2126330504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="15.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126021496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2126021496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126330504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,7 +1400,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E12"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
